--- a/data/P20versusRestIncomeTrendsMNA.xlsx
+++ b/data/P20versusRestIncomeTrendsMNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7732F605-C2AD-411C-B637-FFE4022DE176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F9C9EF-FE38-4629-A58D-C6BC84338176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{0448027E-C52A-4A58-A7D8-0CD1C843C088}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{E1384059-6C6E-42D2-AECC-0CE7B3D4F8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B39A5B-2356-467B-9E61-F85AB528CCEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00BA7AD-5B6B-4B4F-B2AD-48BFE0DAC6F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,7 +221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CECA98C-AA73-4DD8-BACE-19DFE074E545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE28E37-4A72-4D58-B776-311AACAE79A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,7 +279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE7CE7-2955-49D4-97EF-1B29DF91092C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5DF6A3-44B9-43D4-87C3-7413C77AA587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F067F-2D2E-482E-86D9-93E30375D0B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB7AAE5-2A6E-4456-995E-E12AFB7D7368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,7 +395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB5DFE3-A385-4314-9F30-17833164C6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA15A9D-4FBF-4770-9D8B-1CA8A1968510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33BF7D3-8A2B-4246-8C67-D0D425336552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814C5DCA-69F2-4626-99AA-E52D78D782B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC06739-C854-44F6-BB3B-D9869B400FE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A3D76-68F9-41B6-BB84-D64E21EF8B4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85BAA10-C26D-4520-8D50-F4A3B01A7BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CB42BB-432F-4C04-9897-36EB6866A5E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEAFD5A-081A-4AC2-8D2E-3BA2912BD5D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA35DB48-72F9-40BC-B797-DBAD41E3535C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A14858-CC34-4592-95FD-B9BC9090565F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335667B2-24BF-4C88-9581-5BBEB5EFE887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477EB434-A37A-4C04-AC08-8F6B1B937C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFCEE67-AD72-45D4-B51F-BE3C2F25C5B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C05E3BF-DC13-46F2-B267-BFFA29AF41CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B9A1D0-71CE-4188-8C23-3E2EE220FFB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F68C-0384-4CDC-AF0B-168817F8FC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791C3303-41AD-4001-9FEE-EB06AAAEDE78}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C761AA57-AEB5-419A-8D2C-11CB943A70C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC1A53-D89D-4926-9F80-F3493E7AF0F9}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A425A-0DFA-4292-A764-6D1556B6CD69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306501DD-3FAD-4B61-BD38-FAFEC62024CF}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FADF4E7-A9A4-4214-ADF7-0ED97DF49B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFCD2D-3013-4151-9609-4F16ECDE58D1}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1855,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E386CC60-A2EC-4A71-A738-8D3DF416825B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383407A7-36DC-4849-8EB1-164A011D7947}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2093,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967B676-97AC-4F0A-88F6-B5ADEEAFDF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF7E4B2-53B4-4547-8473-A4CC408FA272}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2331,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC35CF65-47DB-43B8-A109-BF6D32B095DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E72E54-5637-4027-B86B-ED46D2F71F44}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7E5E26-17F1-4B51-A06E-023D86E13059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F83EEA-0627-4E3A-9513-E9A1856D3FB1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A89FB-E27E-4DE5-8BAE-C6E11AF6A7A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B4DD35-2046-4354-8490-2FF44C7ADF2C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3033,7 +3033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075AE3C-34C6-4F26-9A93-B24537018DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE47E0F-282A-4D54-ABB8-25EE97CDFCDE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3271,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A071E01-1DC5-4569-AF9D-087F06271422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D2819-607A-4D73-A588-BB4F02D40F10}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3509,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9305AF-14A8-4011-9285-F9719B4C4FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D41296F-7AC7-492E-9B89-95644878636B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsMNA.xlsx
+++ b/data/P20versusRestIncomeTrendsMNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F9C9EF-FE38-4629-A58D-C6BC84338176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C56AD2-9697-444C-8490-4A68C87785C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{E1384059-6C6E-42D2-AECC-0CE7B3D4F8E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{0157018F-41A2-4F11-938E-4F4B48E6C744}"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00BA7AD-5B6B-4B4F-B2AD-48BFE0DAC6F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D4EB60-B0C1-4019-9B55-2D7DE290B14A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,7 +221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE28E37-4A72-4D58-B776-311AACAE79A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031D8FD6-ED5F-4D23-926C-554071417FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,7 +279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5DF6A3-44B9-43D4-87C3-7413C77AA587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C26C54-0E6B-4E53-94B6-EC5E42E8A51D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB7AAE5-2A6E-4456-995E-E12AFB7D7368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCC74D3-1A55-41CA-90B3-630EC77F1440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,7 +395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA15A9D-4FBF-4770-9D8B-1CA8A1968510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EE260C-8668-476A-9426-C806D18CA2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814C5DCA-69F2-4626-99AA-E52D78D782B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1F57B5-DC18-42D3-B11B-866C1319050D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A3D76-68F9-41B6-BB84-D64E21EF8B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C24E025-6E11-474A-A8A8-FE3ED7BAB4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CB42BB-432F-4C04-9897-36EB6866A5E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53749F16-FD8D-43F7-BC69-316D96CE3001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA35DB48-72F9-40BC-B797-DBAD41E3535C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B649725-091C-4A4D-B3F9-F7304A7D3221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335667B2-24BF-4C88-9581-5BBEB5EFE887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A7F9F1-32B6-4535-83BB-412B45DF0A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFCEE67-AD72-45D4-B51F-BE3C2F25C5B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DE4751-E24D-4DD0-B025-A86BFF6A497A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B9A1D0-71CE-4188-8C23-3E2EE220FFB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDF3B65-6E50-40D9-B6F3-CD04493CA6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791C3303-41AD-4001-9FEE-EB06AAAEDE78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C665C4A1-2FCE-483E-99FB-10495D8F8F55}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC1A53-D89D-4926-9F80-F3493E7AF0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECBA7CA-6D1F-4DC1-9CF0-DCE9F830DE6D}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306501DD-3FAD-4B61-BD38-FAFEC62024CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991A6F2A-3C54-4413-A4BE-64FCD92B9C3A}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFCD2D-3013-4151-9609-4F16ECDE58D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C1CF09-7354-4E3D-8BF1-1BB6F9310037}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1855,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383407A7-36DC-4849-8EB1-164A011D7947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F0FF08-5863-4F85-96B1-3EA8A90C9327}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2093,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF7E4B2-53B4-4547-8473-A4CC408FA272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEFF233-83D9-4863-B300-30BF0FDEABE8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2331,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E72E54-5637-4027-B86B-ED46D2F71F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790230B-A122-4D50-85BE-B0F729A78D27}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F83EEA-0627-4E3A-9513-E9A1856D3FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661D7BA-ECB9-4934-984E-BB54D5CAB62C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B4DD35-2046-4354-8490-2FF44C7ADF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EFA728-FBA5-4E17-86DC-71F0D63C8029}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3033,7 +3033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE47E0F-282A-4D54-ABB8-25EE97CDFCDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46BCF17-A1DD-4E1B-B5A7-D529A731ABF2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3271,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D2819-607A-4D73-A588-BB4F02D40F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68061952-94D8-45A4-B7DC-1F68C6E1EC2D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3509,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D41296F-7AC7-492E-9B89-95644878636B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C5B39-C125-4F74-8BB6-76429AA2D5B1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
